--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tk-hdd-backup\Data\@KMUTNB WORKs\Year 1\040613201 Computer Programming 1\ComPro1Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{088F13B2-BA3B-430C-B131-CF3360E3ABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582EFB52-CCF7-44E7-BE45-D5BB45B10FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17119E70-600C-4351-8F05-AAB983F732AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Q</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Wordle</t>
+  </si>
+  <si>
+    <t>Answer:</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -272,52 +275,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46F51D-D48B-4786-B218-0052D0D1623D}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,611 +682,560 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="7"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="10"/>
+      <c r="A4" s="6"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="10"/>
+      <c r="A5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="10"/>
+      <c r="A6" s="6"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="V6" s="7"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="V7" s="7"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="V8" s="7"/>
     </row>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="10"/>
+      <c r="A12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="10"/>
+      <c r="A13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="10"/>
+      <c r="A14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="10"/>
+      <c r="A15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="V16" s="10"/>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="V17" s="10"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
+      <c r="A16" s="6"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="12"/>
+      <c r="V18" s="7"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="7"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
+      <c r="I20" s="10"/>
+      <c r="J20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2" t="s">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
+      <c r="M20" s="10"/>
+      <c r="N20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2" t="s">
+      <c r="O20" s="10"/>
+      <c r="P20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2" t="s">
+      <c r="S20" s="10"/>
+      <c r="T20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="10"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="10"/>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="2" t="s">
+      <c r="U20" s="10"/>
+      <c r="V20" s="7"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="7"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2" t="s">
+      <c r="N22" s="10"/>
+      <c r="O22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
+      <c r="R22" s="10"/>
+      <c r="S22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="10"/>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="10"/>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14" t="s">
+      <c r="T22" s="10"/>
+      <c r="V22" s="7"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="V23" s="7"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
+      <c r="N24" s="10"/>
+      <c r="O24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2" t="s">
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2" t="s">
+      <c r="R24" s="10"/>
+      <c r="S24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="10"/>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="10"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="13"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="61">
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="Q22:R23"/>
+    <mergeCell ref="S22:T23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="T20:U21"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="O22:P23"/>
+    <mergeCell ref="B2:U3"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="S24:U25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="K24:L25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
     <mergeCell ref="O15:P16"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="I11:J12"/>
@@ -1262,54 +1247,6 @@
     <mergeCell ref="K13:L14"/>
     <mergeCell ref="M13:N14"/>
     <mergeCell ref="O13:P14"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="B2:U3"/>
-    <mergeCell ref="O22:P23"/>
-    <mergeCell ref="Q22:R23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="S22:U23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="P18:Q19"/>
-    <mergeCell ref="R18:S19"/>
-    <mergeCell ref="T18:U19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="L18:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tk-hdd-backup\Data\@KMUTNB WORKs\Year 1\040613201 Computer Programming 1\ComPro1Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582EFB52-CCF7-44E7-BE45-D5BB45B10FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E20F48-9D4B-4FE4-832D-3CBB444A2E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17119E70-600C-4351-8F05-AAB983F732AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Q</t>
   </si>
@@ -126,13 +126,16 @@
   </si>
   <si>
     <t>Answer:</t>
+  </si>
+  <si>
+    <t>Stats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +146,13 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -303,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,25 +345,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC46F51D-D48B-4786-B218-0052D0D1623D}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,54 +718,55 @@
       <c r="U1" s="4"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -933,33 +947,29 @@
       <c r="P16" s="10"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="14" t="s">
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14"/>
       <c r="V18" s="7"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V19" s="7"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>0</v>
       </c>
@@ -1001,10 +1011,8 @@
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="7"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1026,11 +1034,8 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="7"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
@@ -1068,34 +1073,29 @@
       </c>
       <c r="T22" s="10"/>
       <c r="V22" s="7"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
       <c r="V23" s="7"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1136,8 +1136,7 @@
       <c r="U24" s="10"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1160,7 +1159,7 @@
       <c r="U25" s="10"/>
       <c r="V25" s="7"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1185,27 +1184,35 @@
       <c r="V26" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="Q22:R23"/>
-    <mergeCell ref="S22:T23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="P20:Q21"/>
-    <mergeCell ref="R20:S21"/>
-    <mergeCell ref="T20:U21"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="O22:P23"/>
-    <mergeCell ref="B2:U3"/>
+  <mergeCells count="62">
+    <mergeCell ref="I2:N3"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="K13:L14"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:J10"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="G7:H8"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O7:P8"/>
     <mergeCell ref="O24:P25"/>
     <mergeCell ref="Q24:R25"/>
     <mergeCell ref="B24:D25"/>
@@ -1221,32 +1228,25 @@
     <mergeCell ref="M15:N16"/>
     <mergeCell ref="C22:D23"/>
     <mergeCell ref="E22:F23"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="G7:H8"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:J10"/>
-    <mergeCell ref="K9:L10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="K13:L14"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="O22:P23"/>
+    <mergeCell ref="Q22:R23"/>
+    <mergeCell ref="S22:T23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="P20:Q21"/>
+    <mergeCell ref="R20:S21"/>
+    <mergeCell ref="T20:U21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
